--- a/ipad.xlsx
+++ b/ipad.xlsx
@@ -21,6 +21,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -333,108 +337,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="31" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>-248.4375</v>
       </c>
       <c r="B1">
         <v>445.41663</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D1">
+        <v>-268</v>
+      </c>
+      <c r="E1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-248.4375</v>
       </c>
       <c r="B2">
         <v>321.24997000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>-267</v>
+      </c>
+      <c r="E2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-248.4375</v>
       </c>
       <c r="B3">
         <v>197.08331000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>-251</v>
+      </c>
+      <c r="E3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-125.3125</v>
       </c>
       <c r="B4">
         <v>445.41663</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>-146</v>
+      </c>
+      <c r="E4">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-125.3125</v>
       </c>
       <c r="B5">
         <v>321.24997000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>-136</v>
+      </c>
+      <c r="E5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-125.3125</v>
       </c>
       <c r="B6">
         <v>197.08331000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>-126</v>
+      </c>
+      <c r="E6">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-2.1875</v>
       </c>
       <c r="B7">
         <v>445.41663</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-2.1875</v>
       </c>
       <c r="B8">
         <v>321.24997000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>-6</v>
+      </c>
+      <c r="E8">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-2.1875</v>
       </c>
       <c r="B9">
         <v>197.08331000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>-5</v>
+      </c>
+      <c r="E9">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>120.9375</v>
       </c>
       <c r="B10">
         <v>445.41663</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>128</v>
+      </c>
+      <c r="E10">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>120.9375</v>
       </c>
       <c r="B11">
         <v>321.24997000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>116</v>
+      </c>
+      <c r="E11">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>120.9375</v>
       </c>
       <c r="B12">
         <v>197.08331000000001</v>
+      </c>
+      <c r="D12">
+        <v>118</v>
+      </c>
+      <c r="E12">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
